--- a/wings2/my study status.xlsx
+++ b/wings2/my study status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">Docker -target-22 hours-44 days </t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>from 43-</t>
+  </si>
+  <si>
+    <t>51-62</t>
+  </si>
+  <si>
+    <t>62-68</t>
+  </si>
+  <si>
+    <t>68-</t>
+  </si>
+  <si>
+    <t>sai choopulu</t>
+  </si>
+  <si>
+    <t>tcs dec park intervw</t>
+  </si>
+  <si>
+    <t>may be 43-51</t>
+  </si>
+  <si>
+    <t>no time-tcs work,meetings</t>
   </si>
 </sst>
 </file>
@@ -419,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +550,9 @@
       <c r="D6" s="1">
         <v>45043</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
         <v>45065</v>
       </c>
@@ -537,6 +561,9 @@
       <c r="D7" s="1">
         <v>45044</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>45066</v>
       </c>
@@ -545,6 +572,9 @@
       <c r="D8" s="1">
         <v>45045</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" s="1">
         <v>45067</v>
       </c>
@@ -553,6 +583,9 @@
       <c r="D9" s="1">
         <v>45046</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9" s="1">
         <v>45068</v>
       </c>
@@ -561,6 +594,9 @@
       <c r="D10" s="1">
         <v>45047</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10" s="1">
         <v>45069</v>
       </c>
@@ -569,37 +605,64 @@
       <c r="D11" s="1">
         <v>45048</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11" s="1">
         <v>45070</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="1">
         <v>45049</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="F12" s="1">
         <v>45071</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1">
         <v>45050</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13" s="1">
         <v>45072</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="1">
         <v>45051</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14" s="1">
         <v>45073</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="1">
         <v>45052</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>45074</v>
@@ -609,35 +672,59 @@
       <c r="D16" s="1">
         <v>45053</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="F16" s="1">
         <v>45075</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="1">
         <v>45054</v>
       </c>
+      <c r="E17">
+        <v>47</v>
+      </c>
       <c r="F17" s="1">
         <v>45076</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="1">
         <v>45055</v>
       </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
       <c r="F18" s="1">
         <v>45077</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="1">
         <v>45056</v>
       </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
       <c r="F19" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="1">
         <v>45057</v>
       </c>
@@ -645,15 +732,21 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="1">
         <v>45058</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21" s="1">
         <v>45080</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>45059</v>
       </c>
@@ -661,7 +754,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>45060</v>
       </c>
@@ -669,15 +762,15 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F24" s="1">
         <v>45083</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
     </row>
   </sheetData>

--- a/wings2/my study status.xlsx
+++ b/wings2/my study status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Docker -target-22 hours-44 days </t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>no time-tcs work,meetings</t>
+  </si>
+  <si>
+    <t>from 69-80</t>
+  </si>
+  <si>
+    <t>from 100-122 skipped aws</t>
+  </si>
+  <si>
+    <t>nothing due to went to office</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +459,10 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +481,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -488,8 +501,14 @@
       <c r="F2" s="1">
         <v>45061</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,7 +528,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -529,7 +548,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>0</v>
       </c>
@@ -543,7 +562,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -557,7 +576,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>45044</v>
       </c>
@@ -568,7 +587,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>45045</v>
       </c>
@@ -579,7 +598,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>45046</v>
       </c>
@@ -590,7 +609,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>45047</v>
       </c>
@@ -601,7 +620,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>45048</v>
       </c>
@@ -612,7 +631,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -626,7 +645,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -640,7 +659,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -654,7 +673,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -668,7 +687,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>45053</v>
       </c>
@@ -747,16 +766,28 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="1">
         <v>45059</v>
       </c>
+      <c r="E22">
+        <v>57</v>
+      </c>
       <c r="F22" s="1">
         <v>45081</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="1">
         <v>45060</v>
+      </c>
+      <c r="E23">
+        <v>102</v>
       </c>
       <c r="F23" s="1">
         <v>45082</v>

--- a/wings2/my study status.xlsx
+++ b/wings2/my study status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="docker course" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t xml:space="preserve">Docker -target-22 hours-44 days </t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>30 minutes</t>
-  </si>
-  <si>
-    <t>docker</t>
   </si>
   <si>
     <t>additional notes</t>
@@ -85,6 +82,27 @@
   </si>
   <si>
     <t>nothing due to went to office</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>fri</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +135,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,11 +152,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -142,9 +166,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -467,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -482,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -516,7 +542,7 @@
         <v>45083</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>45040</v>
@@ -536,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>45041</v>
@@ -564,7 +590,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>45043</v>
@@ -633,7 +659,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>45049</v>
@@ -647,7 +673,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>45050</v>
@@ -661,7 +687,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>45051</v>
@@ -675,7 +701,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>45052</v>
@@ -700,7 +726,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>45054</v>
@@ -714,7 +740,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>45055</v>
@@ -728,7 +754,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>45056</v>
@@ -742,7 +768,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>45057</v>
@@ -753,7 +779,7 @@
     </row>
     <row r="21" spans="3:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>45058</v>
@@ -767,7 +793,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>45059</v>
@@ -781,7 +807,7 @@
     </row>
     <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <v>45060</v>
@@ -812,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,55 +853,169 @@
     <col min="6" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
-        <v>45039</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>45040</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>45110</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>45041</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45042</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45043</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45044</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45045</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="A3" s="3"/>
+      <c r="C3" s="3">
+        <v>45111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="C4" s="3">
+        <v>45112</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="C5" s="3">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wings2/my study status.xlsx
+++ b/wings2/my study status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t xml:space="preserve">Docker -target-22 hours-44 days </t>
   </si>
@@ -103,13 +103,117 @@
   </si>
   <si>
     <t>fri</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>daily 1 hour mule</t>
+  </si>
+  <si>
+    <t>video 17,18,19</t>
+  </si>
+  <si>
+    <t>sit 7 hours for completing3 hour syllabus</t>
+  </si>
+  <si>
+    <t>1 hour -20,21,22
+2nd hour-23,24,25
+3rd hour-26,27,28</t>
+  </si>
+  <si>
+    <t>after this we will be left with 8 hours,started reading splunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasted halfday due to HYD house mela </t>
+  </si>
+  <si>
+    <t>half day for yesterday syllabus and remaining half day for slunk</t>
+  </si>
+  <si>
+    <t>wasted office,radhika dropped</t>
+  </si>
+  <si>
+    <t>29,32</t>
+  </si>
+  <si>
+    <t>daily sit for 4 hours</t>
+  </si>
+  <si>
+    <t>tomm sit 4 hours for 2 hours class = video 44-48</t>
+  </si>
+  <si>
+    <t>sat and completed the prerequisite 5711 course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour - 33,34,35 skip 30,31 due to SAP
+2nd hour-36,37,38
+</t>
+  </si>
+  <si>
+    <t>1st hour-39,40,41
+2nd hour- 42,43 
+3rd hour- 44,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hours 2-5:30 PM
+5:30-6:30 &amp; 9-10 -44,45
+</t>
+  </si>
+  <si>
+    <t>only 5.5 hours left</t>
+  </si>
+  <si>
+    <t>completed-46,47,48,49,50</t>
+  </si>
+  <si>
+    <t>11:30-1:30-video 51
+1:30-2 break
+2-4 52,53
+4-5 pp2
+5-7 yoga,misc act,dinner
+7-9- video 54,55,56
+9-10  PP2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6-7:30 yoga,paper,milk
+7:30- 9:30 video 57,58,59
+9:30-10 tiffin
+10-12 break
+12-1:30 video 60-66 (1:30-2 break)-failed
+2-3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mule 66-72 total finish-failed`
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-5 - pp2 -failed</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +224,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,25 +951,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>45110</v>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -868,49 +991,73 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" s="3">
-        <v>45111</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="C4" s="3">
-        <v>45112</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="C5" s="3">
-        <v>45113</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
-        <v>45114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>45115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45157</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">
-        <v>45116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
-        <v>45117</v>
+        <v>45159</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -918,7 +1065,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="3">
-        <v>45118</v>
+        <v>45160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,15 +1079,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="3">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3">
-        <v>45120</v>
+        <v>45162</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -942,23 +1104,35 @@
         <v>28</v>
       </c>
       <c r="C13" s="3">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>45122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45164</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3">
-        <v>45123</v>
+        <v>45165</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -966,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>45124</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -974,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>45125</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -982,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="3">
-        <v>45126</v>
+        <v>45168</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -990,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3">
-        <v>45127</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -998,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="3">
-        <v>45128</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1006,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="3">
-        <v>45129</v>
+        <v>45171</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1188,11 @@
         <v>23</v>
       </c>
       <c r="C22" s="3">
-        <v>45130</v>
+        <v>45172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wings2/my study status.xlsx
+++ b/wings2/my study status.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="docker course" sheetId="1" r:id="rId1"/>
     <sheet name="daily study status" sheetId="2" r:id="rId2"/>
+    <sheet name="pp2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t xml:space="preserve">Docker -target-22 hours-44 days </t>
   </si>
@@ -208,12 +209,40 @@
       <t>3-5 - pp2 -failed</t>
     </r>
   </si>
+  <si>
+    <t>total pp2 needs 80 hours</t>
+  </si>
+  <si>
+    <t>start sept 10-oct 15</t>
+  </si>
+  <si>
+    <t>week days 3.5-70hours
+week ends 8*8=64 hours</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>due to kushimovie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>week ends</t>
+  </si>
+  <si>
+    <t>actual hours studied</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +266,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +298,16 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -265,12 +318,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -280,10 +335,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,4 +1254,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(F4:F22)</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>SUM(G4:G22)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45179</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45180</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>45181</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>45182</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>45183</v>
+      </c>
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>45184</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45185</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="8">
+        <v>45186</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>45187</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>45188</v>
+      </c>
+      <c r="G13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>45189</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>45190</v>
+      </c>
+      <c r="G15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>45191</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="8">
+        <v>45192</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="8">
+        <v>45193</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>45195</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>45196</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <v>45197</v>
+      </c>
+      <c r="G22">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>